--- a/examples/Australia OGD/go_card_retailers/go-card-retailer-locations_counters.xlsx
+++ b/examples/Australia OGD/go_card_retailers/go-card-retailer-locations_counters.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,6 +436,11 @@
           <t>description</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>primary_key</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -385,6 +458,11 @@
           <t>Error: Attribute 'status' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -402,6 +480,11 @@
           <t>Error: Attribute 'region1' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -419,6 +502,11 @@
           <t>Error: Attribute 'product1' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,6 +524,11 @@
           <t>Error: Attribute 'product2' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -453,6 +546,11 @@
           <t>Error: Attribute 'product3' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -470,6 +568,11 @@
           <t>Error: Attribute 'service1' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -487,6 +590,11 @@
           <t>Error: Attribute 'service2' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -504,6 +612,11 @@
           <t>Error: Attribute 'service3' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -521,6 +634,11 @@
           <t>Error: Attribute 'service4' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -538,6 +656,11 @@
           <t>Error: Attribute 'service5' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -555,6 +678,11 @@
           <t>Error: Attribute 'region2' was not found in the dataset.</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -570,6 +698,11 @@
       <c r="C13" t="inlineStr">
         <is>
           <t>Error: Attribute 'region3' was not found in the dataset.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
         </is>
       </c>
     </row>
